--- a/similarities/split_global/harmonic_similarity_timestamps_266.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_266.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D/b7', 'G/3', 'D', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:23.703945', '0:00:29.172244')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:00:08.900000', '0:00:11.680000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=23.703945</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['Eb', 'Bb', 'Eb', 'Bb/3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D/5', 'A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:18.932000', '0:00:23.992000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:00:31.898979', '0:00:34.743424')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.932</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.898979</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>isophonics_72</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>['A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:48.280000', '0:02:00.520000')]</t>
+          <t>('0:00:32.074829', '0:00:37.705668')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:35.220000', '0:00:42.420000')]</t>
+          <t>('0:00:14.168000', '0:00:18.573000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=108.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:03.044470', '0:00:12.997936')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
+          <t>('0:02:18.020000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'E:min7', 'A:7', 'D']]</t>
+          <t>['G:7', 'C', 'A:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['Bb:7', 'Eb', 'C:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:26.250000', '0:00:39.805000')]</t>
+          <t>('0:00:51.800000', '0:00:55.200000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:05.020000', '0:01:13.560000')]</t>
+          <t>('0:00:36.720000', '0:00:45.670000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=26.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=51.8</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=65.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=36.72</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:min', 'Bb:7', 'Eb', 'C:7'], ['Eb', 'F:min', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C', 'A:7'], ['C', 'D:min', 'G:7', 'C']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:34.940000', '0:00:45.670000'), ('0:00:06.260000', '0:00:14.120000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:46.710000', '0:01:54.554000'), ('0:01:42.694000', '0:01:52.530000')]</t>
+          <t>('0:00:42.520000', '0:00:46.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=34.94', 'https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=6.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=106.71', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=102.694']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb/5', 'Ab']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F#/4', 'B', 'E/5']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:33.181700', '0:01:37.709591')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:07.431000', '0:02:12.656000')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=93.1817']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>['E:7/G#', 'A:7/G', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:42.960000', '0:00:45.780000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:00:54.820000', '0:01:01.800000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_45</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:min7', 'Bb:7']]</t>
+          <t>['Ab:7', 'Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:min7', 'F:7']]</t>
+          <t>['F:7', 'Bb', 'Bb:min', 'F']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:58.450000', '0:01:02.950000')]</t>
+          <t>('0:00:47.890000', '0:00:52.970000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:08.810000', '0:00:10.510000')]</t>
+          <t>('0:00:19.513843', '0:00:26.514661')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-45#t=58.45']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.89</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=8.81']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=19.513843</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>isophonics_92</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:28.140000', '0:00:36.100000')]</t>
+          <t>('0:00:22.622607', '0:00:29.751133')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:04.160000', '0:00:08.800000'), ('0:00:01.640000', '0:00:05.020000')]</t>
+          <t>('0:00:55.620000', '0:01:03.080000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=28.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=22.622607</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=55.62</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['C:hdim7/D#', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:03.070000')]</t>
+          <t>('0:00:22.660000', '0:00:29.320000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:08.413696', '0:00:12.303038')]</t>
+          <t>('0:00:10.980000', '0:00:16.420000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=22.66</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=10.98</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
+          <t>('0:00:41.030000', '0:00:52.200000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:58.670000', '0:01:04.130000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=41.03</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:32.980000', '0:00:35.260000')]</t>
+          <t>('0:00:00.220000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:05.900000', '0:01:12.440000')]</t>
+          <t>('0:00:29.100000', '0:00:45.980000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=65.9']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=29.1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:maj/E', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000')]</t>
+          <t>('0:00:41.080000', '0:00:42.940000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+          <t>('0:00:38.900000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
